--- a/基本設計/機能一覧表.xlsx
+++ b/基本設計/機能一覧表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emi07\Desktop\追加課題6\【実習】各種設計書（テンプレ）\基本設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/070c0c235ee89c9f/デスクトップ/DIスクール/workspace/account/基本設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5803A31C-5DDC-49FD-89AD-00E0C5169C50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{5803A31C-5DDC-49FD-89AD-00E0C5169C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{197D1930-7DED-4828-B1F5-C9D143B4B470}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>機能一覧表</t>
     <rPh sb="0" eb="2">
@@ -74,13 +74,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>岩岬</t>
-    <rPh sb="0" eb="2">
-      <t>イワサキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
@@ -88,10 +81,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>SI</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -153,16 +142,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>見積・受注</t>
-    <rPh sb="0" eb="2">
-      <t>ミツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジュチュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
@@ -178,13 +157,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>渡辺</t>
-    <rPh sb="0" eb="2">
-      <t>ワタナベ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>機能分類</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
@@ -195,167 +167,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>見積</t>
-    <rPh sb="0" eb="2">
-      <t>ミツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>見積一覧</t>
-    <rPh sb="0" eb="2">
-      <t>ミツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>見積入力</t>
-    <rPh sb="0" eb="2">
-      <t>ミツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>採算計算書</t>
-    <rPh sb="0" eb="2">
-      <t>サイサン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ケイサンショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>注文書</t>
-    <rPh sb="0" eb="3">
-      <t>チュウモンショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>受注入力</t>
-    <rPh sb="0" eb="2">
-      <t>ジュチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>受注一覧</t>
-    <rPh sb="0" eb="2">
-      <t>ジュチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>注文請書/注文請書（控）</t>
-    <rPh sb="0" eb="2">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ウケショ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ウケショ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヒカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>見積書/見積書（控）</t>
-    <rPh sb="0" eb="3">
-      <t>ミツモリショ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ミツモリショ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>受注</t>
-    <rPh sb="0" eb="2">
-      <t>ジュチュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ユーザー用の注文書</t>
-    <rPh sb="4" eb="5">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>チュウモンショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>見積データの検索＆一覧表示</t>
-    <rPh sb="0" eb="2">
-      <t>ミツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>受注データの検索＆一覧表示</t>
-    <rPh sb="0" eb="2">
-      <t>ジュチュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>見積の作成・修正・削除</t>
-    <rPh sb="0" eb="2">
-      <t>ミツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>受注の作成・修正・削除</t>
     <rPh sb="0" eb="2">
       <t>ジュチュウ</t>
@@ -372,51 +183,212 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>受注伝票</t>
-    <rPh sb="0" eb="2">
-      <t>ジュチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>デンピョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>受注チェックリスト</t>
-    <rPh sb="0" eb="2">
-      <t>ジュチュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>株式会社xxxxxx様</t>
-    <rPh sb="10" eb="11">
-      <t>サマ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>生徒管理システム</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>株式会社D.I様</t>
+    <rPh sb="7" eb="8">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>若狭</t>
     <rPh sb="0" eb="2">
-      <t>セイト</t>
-    </rPh>
-    <rPh sb="2" eb="4">
+      <t>ワカサ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント管理付きブログシステム</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント管理付きブログシステム</t>
+    <rPh sb="5" eb="7">
       <t>カンリ</t>
     </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント管理</t>
+  </si>
+  <si>
+    <t>登録画面表示</t>
+    <rPh sb="0" eb="6">
+      <t>トウロクガメンヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ユーザー登録用の入力画面を表示する</t>
+    <rPh sb="4" eb="7">
+      <t>トウロクヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>登録確認</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>入力内容を確認画面に表示する</t>
+  </si>
+  <si>
+    <t>登録完了</t>
+  </si>
+  <si>
+    <t>入力内容をDBに登録し、完了画面を表示する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ログイン機能</t>
+  </si>
+  <si>
+    <t>ログイン処理</t>
+  </si>
+  <si>
+    <t>更新画面表示</t>
+  </si>
+  <si>
+    <t>登録済みの情報を編集できる画面を表示する</t>
+  </si>
+  <si>
+    <t>更新確認</t>
+  </si>
+  <si>
+    <t>更新完了</t>
+  </si>
+  <si>
+    <t>入力情報で認証を行い、TOP画面へ移行する</t>
+    <rPh sb="17" eb="19">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント更新機能</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント登録機能</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>削除画面表示</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>削除確認</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>削除完了</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント削除機能</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント検索機能</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>削除するアカウント情報を削除画面に表示する</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>本当に削除するか表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>指定したアカウント情報の削除フラグをDBでたて、完了画面を表示する</t>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>検索画面表示</t>
+  </si>
+  <si>
+    <t>検索結果表示</t>
+  </si>
+  <si>
+    <t>検索条件（ID、名前、メールなど）を入力する画面を表示する</t>
+  </si>
+  <si>
+    <t>入力条件に一致するアカウント情報を一覧表示する</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -497,12 +469,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="24"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <u/>
       <sz val="36"/>
       <name val="ＭＳ ゴシック"/>
@@ -512,6 +478,12 @@
     <font>
       <sz val="6"/>
       <name val="明朝"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -686,9 +658,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -707,16 +679,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -735,16 +706,15 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -757,7 +727,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -772,12 +742,6 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -801,6 +765,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -829,14 +807,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>314321</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>126995</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
@@ -855,8 +833,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7429500" y="165100"/>
-          <a:ext cx="1555750" cy="171450"/>
+          <a:off x="8172446" y="161925"/>
+          <a:ext cx="1698624" cy="168275"/>
           <a:chOff x="733" y="95"/>
           <a:chExt cx="180" cy="17"/>
         </a:xfrm>
@@ -955,15 +933,22 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="ＭＳ Ｐゴシック"/>
                 <a:ea typeface="ＭＳ Ｐゴシック"/>
               </a:rPr>
-              <a:t>2005/5/15</a:t>
+              <a:t>2025/10/8</a:t>
             </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1272,51 +1257,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:Q10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.08984375" style="16" customWidth="1"/>
-    <col min="7" max="29" width="4.08984375" style="1" customWidth="1"/>
-    <col min="30" max="32" width="4.08984375" style="17" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="16" customWidth="1"/>
+    <col min="7" max="32" width="4.125" style="1" customWidth="1"/>
     <col min="33" max="36" width="4" style="1" customWidth="1"/>
     <col min="37" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:176" s="9" customFormat="1" ht="13" customHeight="1">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="23"/>
+    <row r="1" spans="1:176" s="9" customFormat="1" ht="12.95" customHeight="1">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="22"/>
       <c r="AG1" s="7"/>
       <c r="AH1" s="8"/>
       <c r="AI1" s="8"/>
@@ -1462,781 +1448,781 @@
       <c r="FS1" s="8"/>
       <c r="FT1" s="8"/>
     </row>
-    <row r="2" spans="1:176" ht="13" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="27"/>
-    </row>
-    <row r="3" spans="1:176" ht="13" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="27"/>
-    </row>
-    <row r="4" spans="1:176" ht="13" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="27"/>
-    </row>
-    <row r="5" spans="1:176" ht="13" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="27"/>
-    </row>
-    <row r="6" spans="1:176" ht="13" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="27"/>
-    </row>
-    <row r="7" spans="1:176" ht="13" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="27"/>
-    </row>
-    <row r="8" spans="1:176" ht="13" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="27"/>
-    </row>
-    <row r="9" spans="1:176" ht="13" customHeight="1">
-      <c r="A9" s="24"/>
-      <c r="B9" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="27"/>
-    </row>
-    <row r="10" spans="1:176" ht="13" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="27"/>
-    </row>
-    <row r="11" spans="1:176" ht="13" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="27"/>
-    </row>
-    <row r="12" spans="1:176" ht="13" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="27"/>
-    </row>
-    <row r="13" spans="1:176" ht="13" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="27"/>
-    </row>
-    <row r="14" spans="1:176" ht="13" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="27"/>
-    </row>
-    <row r="15" spans="1:176" ht="13" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="27"/>
-    </row>
-    <row r="16" spans="1:176" ht="13" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="27"/>
-    </row>
-    <row r="17" spans="1:32" ht="13" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="46" t="s">
+    <row r="2" spans="1:176" ht="12.95" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="24"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="25"/>
+    </row>
+    <row r="3" spans="1:176" ht="12.95" customHeight="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="25"/>
+    </row>
+    <row r="4" spans="1:176" ht="12.95" customHeight="1">
+      <c r="A4" s="23"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="25"/>
+    </row>
+    <row r="5" spans="1:176" ht="12.95" customHeight="1">
+      <c r="A5" s="23"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="25"/>
+    </row>
+    <row r="6" spans="1:176" ht="12.95" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="25"/>
+    </row>
+    <row r="7" spans="1:176" ht="12.95" customHeight="1">
+      <c r="A7" s="23"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="25"/>
+    </row>
+    <row r="8" spans="1:176" ht="12.95" customHeight="1">
+      <c r="A8" s="23"/>
+      <c r="B8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="25"/>
+    </row>
+    <row r="9" spans="1:176" ht="12.95" customHeight="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="25"/>
+    </row>
+    <row r="10" spans="1:176" ht="12.95" customHeight="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="25"/>
+    </row>
+    <row r="11" spans="1:176" ht="12.95" customHeight="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="25"/>
+    </row>
+    <row r="12" spans="1:176" ht="12.95" customHeight="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="25"/>
+    </row>
+    <row r="13" spans="1:176" ht="12.95" customHeight="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="25"/>
+    </row>
+    <row r="14" spans="1:176" ht="12.95" customHeight="1">
+      <c r="A14" s="23"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="25"/>
+    </row>
+    <row r="15" spans="1:176" ht="12.95" customHeight="1">
+      <c r="A15" s="23"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="25"/>
+    </row>
+    <row r="16" spans="1:176" ht="12.95" customHeight="1">
+      <c r="A16" s="23"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="25"/>
+    </row>
+    <row r="17" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A17" s="23"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="27"/>
-    </row>
-    <row r="18" spans="1:32" ht="13" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="27"/>
-    </row>
-    <row r="19" spans="1:32" ht="13" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="27"/>
-    </row>
-    <row r="20" spans="1:32" ht="13" customHeight="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="27"/>
-    </row>
-    <row r="21" spans="1:32" ht="13" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="27"/>
-    </row>
-    <row r="22" spans="1:32" ht="13" customHeight="1">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="27"/>
-    </row>
-    <row r="23" spans="1:32" ht="13" customHeight="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="27"/>
-    </row>
-    <row r="24" spans="1:32" ht="13" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="27"/>
-    </row>
-    <row r="25" spans="1:32" ht="13" customHeight="1">
-      <c r="A25" s="24"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="25"/>
+    </row>
+    <row r="18" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A18" s="23"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="25"/>
+    </row>
+    <row r="19" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A19" s="23"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="25"/>
+    </row>
+    <row r="20" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A20" s="23"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="25"/>
+    </row>
+    <row r="21" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A21" s="23"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="25"/>
+    </row>
+    <row r="22" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A22" s="23"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="25"/>
+    </row>
+    <row r="23" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A23" s="23"/>
+      <c r="B23" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="25"/>
+    </row>
+    <row r="24" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A24" s="23"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="25"/>
+    </row>
+    <row r="25" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A25" s="23"/>
       <c r="B25" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="13"/>
       <c r="F25" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="13"/>
       <c r="J25" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -2256,31 +2242,31 @@
       <c r="Z25" s="11"/>
       <c r="AA25" s="11"/>
       <c r="AB25" s="13"/>
-      <c r="AC25" s="29" t="s">
-        <v>16</v>
+      <c r="AC25" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="AD25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="27"/>
-    </row>
-    <row r="26" spans="1:32" ht="13" customHeight="1">
-      <c r="A26" s="24"/>
+        <v>9</v>
+      </c>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="25"/>
+    </row>
+    <row r="26" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A26" s="23"/>
       <c r="B26" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="48">
-        <v>38487</v>
-      </c>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
+      <c r="F26" s="46">
+        <v>45938</v>
+      </c>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="48"/>
       <c r="J26" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -2300,17 +2286,17 @@
       <c r="Z26" s="11"/>
       <c r="AA26" s="11"/>
       <c r="AB26" s="13"/>
-      <c r="AC26" s="29" t="s">
-        <v>4</v>
+      <c r="AC26" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="AD26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="27"/>
-    </row>
-    <row r="27" spans="1:32" ht="13" customHeight="1">
-      <c r="A27" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="25"/>
+    </row>
+    <row r="27" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A27" s="23"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2338,13 +2324,13 @@
       <c r="Z27" s="11"/>
       <c r="AA27" s="11"/>
       <c r="AB27" s="13"/>
-      <c r="AC27" s="29"/>
+      <c r="AC27" s="27"/>
       <c r="AD27" s="13"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="27"/>
-    </row>
-    <row r="28" spans="1:32" ht="13" customHeight="1">
-      <c r="A28" s="24"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="25"/>
+    </row>
+    <row r="28" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A28" s="23"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -2372,13 +2358,13 @@
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>
       <c r="AB28" s="13"/>
-      <c r="AC28" s="29"/>
+      <c r="AC28" s="27"/>
       <c r="AD28" s="13"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="27"/>
-    </row>
-    <row r="29" spans="1:32" ht="13" customHeight="1">
-      <c r="A29" s="24"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="25"/>
+    </row>
+    <row r="29" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A29" s="23"/>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -2406,13 +2392,13 @@
       <c r="Z29" s="11"/>
       <c r="AA29" s="11"/>
       <c r="AB29" s="13"/>
-      <c r="AC29" s="29"/>
+      <c r="AC29" s="27"/>
       <c r="AD29" s="13"/>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="27"/>
-    </row>
-    <row r="30" spans="1:32" ht="13" customHeight="1">
-      <c r="A30" s="24"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="25"/>
+    </row>
+    <row r="30" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A30" s="23"/>
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -2440,13 +2426,13 @@
       <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>
       <c r="AB30" s="13"/>
-      <c r="AC30" s="29"/>
+      <c r="AC30" s="27"/>
       <c r="AD30" s="13"/>
-      <c r="AE30" s="25"/>
-      <c r="AF30" s="27"/>
-    </row>
-    <row r="31" spans="1:32" ht="13" customHeight="1">
-      <c r="A31" s="24"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="25"/>
+    </row>
+    <row r="31" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A31" s="23"/>
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -2474,13 +2460,13 @@
       <c r="Z31" s="11"/>
       <c r="AA31" s="11"/>
       <c r="AB31" s="13"/>
-      <c r="AC31" s="29"/>
+      <c r="AC31" s="27"/>
       <c r="AD31" s="13"/>
-      <c r="AE31" s="25"/>
-      <c r="AF31" s="27"/>
-    </row>
-    <row r="32" spans="1:32" ht="13" customHeight="1">
-      <c r="A32" s="24"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="25"/>
+    </row>
+    <row r="32" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A32" s="23"/>
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -2508,13 +2494,13 @@
       <c r="Z32" s="11"/>
       <c r="AA32" s="11"/>
       <c r="AB32" s="13"/>
-      <c r="AC32" s="29"/>
+      <c r="AC32" s="27"/>
       <c r="AD32" s="13"/>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="27"/>
-    </row>
-    <row r="33" spans="1:32" ht="13" customHeight="1">
-      <c r="A33" s="24"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="25"/>
+    </row>
+    <row r="33" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A33" s="23"/>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -2542,13 +2528,13 @@
       <c r="Z33" s="11"/>
       <c r="AA33" s="11"/>
       <c r="AB33" s="13"/>
-      <c r="AC33" s="29"/>
+      <c r="AC33" s="27"/>
       <c r="AD33" s="13"/>
-      <c r="AE33" s="25"/>
-      <c r="AF33" s="27"/>
-    </row>
-    <row r="34" spans="1:32" ht="13" customHeight="1">
-      <c r="A34" s="24"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="25"/>
+    </row>
+    <row r="34" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A34" s="23"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -2576,13 +2562,13 @@
       <c r="Z34" s="11"/>
       <c r="AA34" s="11"/>
       <c r="AB34" s="13"/>
-      <c r="AC34" s="29"/>
+      <c r="AC34" s="27"/>
       <c r="AD34" s="13"/>
-      <c r="AE34" s="25"/>
-      <c r="AF34" s="27"/>
-    </row>
-    <row r="35" spans="1:32" ht="13" customHeight="1">
-      <c r="A35" s="24"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="25"/>
+    </row>
+    <row r="35" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A35" s="23"/>
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -2610,13 +2596,13 @@
       <c r="Z35" s="11"/>
       <c r="AA35" s="11"/>
       <c r="AB35" s="13"/>
-      <c r="AC35" s="29"/>
+      <c r="AC35" s="27"/>
       <c r="AD35" s="13"/>
-      <c r="AE35" s="25"/>
-      <c r="AF35" s="27"/>
-    </row>
-    <row r="36" spans="1:32" ht="13" customHeight="1">
-      <c r="A36" s="24"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="25"/>
+    </row>
+    <row r="36" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A36" s="23"/>
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -2644,13 +2630,13 @@
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
       <c r="AB36" s="13"/>
-      <c r="AC36" s="29"/>
+      <c r="AC36" s="27"/>
       <c r="AD36" s="13"/>
-      <c r="AE36" s="25"/>
-      <c r="AF36" s="27"/>
-    </row>
-    <row r="37" spans="1:32" ht="13" customHeight="1">
-      <c r="A37" s="24"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="25"/>
+    </row>
+    <row r="37" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A37" s="23"/>
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -2678,13 +2664,13 @@
       <c r="Z37" s="11"/>
       <c r="AA37" s="11"/>
       <c r="AB37" s="13"/>
-      <c r="AC37" s="29"/>
+      <c r="AC37" s="27"/>
       <c r="AD37" s="13"/>
-      <c r="AE37" s="25"/>
-      <c r="AF37" s="27"/>
-    </row>
-    <row r="38" spans="1:32" ht="13" customHeight="1">
-      <c r="A38" s="24"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="25"/>
+    </row>
+    <row r="38" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A38" s="23"/>
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -2712,13 +2698,13 @@
       <c r="Z38" s="11"/>
       <c r="AA38" s="11"/>
       <c r="AB38" s="13"/>
-      <c r="AC38" s="29"/>
+      <c r="AC38" s="27"/>
       <c r="AD38" s="13"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="27"/>
-    </row>
-    <row r="39" spans="1:32" ht="13" customHeight="1">
-      <c r="A39" s="24"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="25"/>
+    </row>
+    <row r="39" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A39" s="23"/>
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -2746,13 +2732,13 @@
       <c r="Z39" s="11"/>
       <c r="AA39" s="11"/>
       <c r="AB39" s="13"/>
-      <c r="AC39" s="29"/>
+      <c r="AC39" s="27"/>
       <c r="AD39" s="13"/>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="27"/>
-    </row>
-    <row r="40" spans="1:32" ht="13" customHeight="1">
-      <c r="A40" s="24"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="25"/>
+    </row>
+    <row r="40" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A40" s="23"/>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -2780,13 +2766,13 @@
       <c r="Z40" s="11"/>
       <c r="AA40" s="11"/>
       <c r="AB40" s="13"/>
-      <c r="AC40" s="29"/>
+      <c r="AC40" s="27"/>
       <c r="AD40" s="13"/>
-      <c r="AE40" s="25"/>
-      <c r="AF40" s="27"/>
-    </row>
-    <row r="41" spans="1:32" ht="13" customHeight="1">
-      <c r="A41" s="24"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="25"/>
+    </row>
+    <row r="41" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A41" s="23"/>
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -2814,13 +2800,13 @@
       <c r="Z41" s="11"/>
       <c r="AA41" s="11"/>
       <c r="AB41" s="13"/>
-      <c r="AC41" s="29"/>
+      <c r="AC41" s="27"/>
       <c r="AD41" s="13"/>
-      <c r="AE41" s="25"/>
-      <c r="AF41" s="27"/>
-    </row>
-    <row r="42" spans="1:32" ht="13" customHeight="1">
-      <c r="A42" s="24"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="25"/>
+    </row>
+    <row r="42" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A42" s="23"/>
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -2848,44 +2834,44 @@
       <c r="Z42" s="11"/>
       <c r="AA42" s="11"/>
       <c r="AB42" s="13"/>
-      <c r="AC42" s="29"/>
+      <c r="AC42" s="27"/>
       <c r="AD42" s="13"/>
-      <c r="AE42" s="25"/>
-      <c r="AF42" s="27"/>
-    </row>
-    <row r="43" spans="1:32" ht="13" customHeight="1">
-      <c r="A43" s="30"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="31"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="31"/>
-      <c r="AC43" s="31"/>
-      <c r="AD43" s="31"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="33"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="25"/>
+    </row>
+    <row r="43" spans="1:32" ht="12.95" customHeight="1">
+      <c r="A43" s="28"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2911,51 +2897,50 @@
   <dimension ref="A1:FQ42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:AC1"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.08984375" style="16" customWidth="1"/>
-    <col min="7" max="26" width="4.08984375" style="1" customWidth="1"/>
-    <col min="27" max="29" width="4.08984375" style="17" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="16" customWidth="1"/>
+    <col min="7" max="29" width="4.125" style="1" customWidth="1"/>
     <col min="30" max="33" width="4" style="1" customWidth="1"/>
     <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -2989,14 +2974,14 @@
         <v>2</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="58" t="s">
+      <c r="AB2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="59"/>
+      <c r="AC2" s="51"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3022,53 +3007,53 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
-      <c r="Z3" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="60" t="s">
+      <c r="Z3" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC3" s="53"/>
+    </row>
+    <row r="4" spans="1:173" s="9" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A4" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="61"/>
-    </row>
-    <row r="4" spans="1:173" s="9" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="64"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="56"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
@@ -3215,21 +3200,21 @@
       <c r="FQ4" s="8"/>
     </row>
     <row r="5" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>14</v>
+      <c r="A5" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="13"/>
       <c r="J5" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -3237,7 +3222,7 @@
       <c r="N5" s="11"/>
       <c r="O5" s="13"/>
       <c r="P5" s="14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
@@ -3264,15 +3249,15 @@
       <c r="H6" s="11"/>
       <c r="I6" s="13"/>
       <c r="J6" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="13"/>
-      <c r="P6" s="14" t="s">
-        <v>33</v>
+      <c r="P6" s="63" t="s">
+        <v>28</v>
       </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
@@ -3298,15 +3283,17 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="11" t="s">
-        <v>28</v>
+      <c r="J7" t="s">
+        <v>29</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="13"/>
-      <c r="P7" s="14"/>
+      <c r="P7" s="63" t="s">
+        <v>30</v>
+      </c>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
@@ -3327,19 +3314,23 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
+      <c r="F8" s="63" t="s">
+        <v>31</v>
+      </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="11" t="s">
-        <v>23</v>
+      <c r="J8" s="63" t="s">
+        <v>32</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="13"/>
-      <c r="P8" s="14"/>
+      <c r="P8" s="63" t="s">
+        <v>37</v>
+      </c>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
@@ -3360,20 +3351,22 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
+      <c r="F9" s="63" t="s">
+        <v>38</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="11" t="s">
-        <v>24</v>
+      <c r="J9" s="63" t="s">
+        <v>33</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="13"/>
-      <c r="P9" s="14" t="s">
-        <v>30</v>
+      <c r="P9" s="64" t="s">
+        <v>34</v>
       </c>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
@@ -3395,22 +3388,20 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="F10" s="12"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="11" t="s">
-        <v>26</v>
+      <c r="J10" s="63" t="s">
+        <v>35</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="13"/>
-      <c r="P10" s="14" t="s">
-        <v>32</v>
+      <c r="P10" t="s">
+        <v>28</v>
       </c>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
@@ -3436,8 +3427,8 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="11" t="s">
-        <v>25</v>
+      <c r="J11" t="s">
+        <v>36</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -3445,7 +3436,7 @@
       <c r="N11" s="11"/>
       <c r="O11" s="13"/>
       <c r="P11" s="14" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
@@ -3467,19 +3458,23 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
+      <c r="F12" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="11" t="s">
-        <v>27</v>
+      <c r="J12" s="63" t="s">
+        <v>40</v>
       </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="14"/>
+      <c r="P12" t="s">
+        <v>45</v>
+      </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
@@ -3504,15 +3499,17 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="11" t="s">
-        <v>35</v>
+      <c r="J13" s="63" t="s">
+        <v>41</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="13"/>
-      <c r="P13" s="14"/>
+      <c r="P13" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
@@ -3537,15 +3534,17 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="11" t="s">
-        <v>36</v>
+      <c r="J14" s="63" t="s">
+        <v>42</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="13"/>
-      <c r="P14" s="14"/>
+      <c r="P14" s="63" t="s">
+        <v>47</v>
+      </c>
       <c r="Q14" s="11"/>
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
@@ -3566,17 +3565,23 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="11"/>
+      <c r="J15" s="63" t="s">
+        <v>48</v>
+      </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="13"/>
-      <c r="P15" s="14"/>
+      <c r="P15" s="65" t="s">
+        <v>50</v>
+      </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
@@ -3597,17 +3602,21 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
+      <c r="F16" s="63"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="11"/>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="13"/>
-      <c r="P16" s="14"/>
+      <c r="P16" s="66" t="s">
+        <v>51</v>
+      </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
@@ -3638,7 +3647,6 @@
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="13"/>
-      <c r="P17" s="14"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
@@ -4407,12 +4415,6 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="13"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="13"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
